--- a/excel/finished/wg4#烧结/4烧结作业区每月生产情况.xlsx
+++ b/excel/finished/wg4#烧结/4烧结作业区每月生产情况.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21240" windowHeight="9585"/>
+    <workbookView windowWidth="21600" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="每月生产情况" sheetId="1" r:id="rId1"/>
@@ -257,11 +257,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -321,15 +321,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,7 +346,31 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -352,7 +378,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,22 +421,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,45 +436,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -450,15 +458,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -480,7 +480,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,7 +540,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,7 +594,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,19 +636,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,49 +648,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,73 +660,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,6 +822,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -846,6 +861,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -861,30 +887,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -896,11 +898,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -927,10 +927,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -939,137 +939,137 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1132,9 +1132,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1484,7 +1481,7 @@
   <dimension ref="A1:AA201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81481481481481" defaultRowHeight="15"/>
@@ -1538,8 +1535,8 @@
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
       <c r="S1" s="14"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
       <c r="V1" s="14"/>
       <c r="W1" s="14"/>
       <c r="X1" s="14"/>
@@ -1657,14 +1654,14 @@
         <f>IF(ISBLANK(_zhiliangzhibiao!H2),"",_zhiliangzhibiao!H2)</f>
         <v/>
       </c>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
       <c r="Q4" s="14"/>
       <c r="R4" s="14"/>
       <c r="S4" s="14"/>
@@ -1709,14 +1706,14 @@
         <f>IF(ISBLANK(_zhiliangzhibiao!H3),"",_zhiliangzhibiao!H3)</f>
         <v/>
       </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
       <c r="Q5" s="14"/>
       <c r="R5" s="14"/>
       <c r="S5" s="14"/>
@@ -1725,7 +1722,7 @@
       <c r="V5" s="14"/>
       <c r="W5" s="14"/>
       <c r="X5" s="14"/>
-      <c r="Y5" s="47"/>
+      <c r="Y5" s="46"/>
       <c r="Z5" s="14"/>
       <c r="AA5" s="14"/>
     </row>
@@ -1761,14 +1758,14 @@
         <f>IF(ISBLANK(_zhiliangzhibiao!H4),"",_zhiliangzhibiao!H4)</f>
         <v/>
       </c>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
       <c r="Q6" s="14"/>
       <c r="R6" s="14"/>
       <c r="S6" s="14"/>
@@ -1813,14 +1810,14 @@
         <f>IF(ISBLANK(_zhiliangzhibiao!H5),"",_zhiliangzhibiao!H5)</f>
         <v/>
       </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
       <c r="Q7" s="14"/>
       <c r="R7" s="14"/>
       <c r="S7" s="14"/>
@@ -1865,14 +1862,14 @@
         <f>IF(ISBLANK(_zhiliangzhibiao!H6),"",_zhiliangzhibiao!H6)</f>
         <v/>
       </c>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
       <c r="Q8" s="14"/>
       <c r="R8" s="14"/>
       <c r="S8" s="14"/>
@@ -1896,14 +1893,14 @@
       <c r="F9" s="11"/>
       <c r="G9" s="10"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
       <c r="Q9" s="14"/>
       <c r="R9" s="14"/>
       <c r="S9" s="14"/>
@@ -1933,29 +1930,29 @@
         <v>0.7</v>
       </c>
       <c r="H10" s="13"/>
-      <c r="I10" s="36">
+      <c r="I10" s="35">
         <f>SUM(I6:I9)</f>
         <v>0</v>
       </c>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36">
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35">
         <f>SUM(L6:L9)</f>
         <v>0</v>
       </c>
-      <c r="M10" s="36">
+      <c r="M10" s="35">
         <f>SUM(M6:M9)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="36">
+      <c r="N10" s="35">
         <f>SUM(N6:N9)</f>
         <v>0</v>
       </c>
-      <c r="O10" s="36">
+      <c r="O10" s="35">
         <f>SUM(O6:O9)</f>
         <v>0</v>
       </c>
-      <c r="P10" s="36">
+      <c r="P10" s="35">
         <v>13488</v>
       </c>
       <c r="Q10" s="14"/>
@@ -2142,7 +2139,7 @@
         <f>IF(ISBLANK(_shengchanqingkuang!F2),0,_shengchanqingkuang!F2)</f>
         <v>0</v>
       </c>
-      <c r="I15" s="37">
+      <c r="I15" s="36">
         <f>IF(ISBLANK(_shengchanqingkuang!G2),0,_shengchanqingkuang!G2)</f>
         <v>0</v>
       </c>
@@ -2285,7 +2282,7 @@
         <f>IF(ISBLANK(_shengchanqingkuang!F5),0,_shengchanqingkuang!F5)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="38">
+      <c r="I18" s="37">
         <f>IF(ISBLANK(_shengchanqingkuang!H2),0,_shengchanqingkuang!H2)</f>
         <v>0</v>
       </c>
@@ -2312,29 +2309,29 @@
       <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="18">
         <f>SUM(B15:B18)</f>
         <v>0</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
-      <c r="E19" s="22">
+      <c r="E19" s="18">
         <f>SUM(E15:E18)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="18">
         <f>SUM(F15:F18)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="18">
         <f>SUM(G15:G18)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="18">
         <f>SUM(H15:H18)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="39"/>
+      <c r="I19" s="38"/>
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
@@ -2413,7 +2410,7 @@
       <c r="AA21" s="14"/>
     </row>
     <row r="22" ht="23.25" customHeight="1" spans="1:27">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="22" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="3"/>
@@ -2422,17 +2419,17 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="24" t="s">
+      <c r="H22" s="23" t="s">
         <v>1</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J22" s="40" t="str">
+      <c r="J22" s="39" t="str">
         <f>I12</f>
         <v>%当日数%</v>
       </c>
-      <c r="K22" s="41" t="s">
+      <c r="K22" s="40" t="s">
         <v>28</v>
       </c>
       <c r="L22" s="14"/>
@@ -2454,23 +2451,23 @@
     </row>
     <row r="23" ht="23.25" customHeight="1" spans="1:27">
       <c r="A23" s="7"/>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="26" t="s">
+      <c r="C23" s="24"/>
+      <c r="D23" s="25" t="s">
         <v>30</v>
       </c>
       <c r="E23" s="15"/>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="25" t="s">
         <v>31</v>
       </c>
       <c r="G23" s="15"/>
-      <c r="H23" s="27" t="s">
+      <c r="H23" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="42"/>
-      <c r="J23" s="43" t="s">
+      <c r="I23" s="41"/>
+      <c r="J23" s="42" t="s">
         <v>33</v>
       </c>
       <c r="K23" s="15"/>
@@ -2492,35 +2489,35 @@
       <c r="AA23" s="14"/>
     </row>
     <row r="24" ht="23.25" customHeight="1" spans="1:27">
-      <c r="A24" s="28"/>
-      <c r="B24" s="29" t="s">
+      <c r="A24" s="27"/>
+      <c r="B24" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="30">
+      <c r="C24" s="29">
         <v>976</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="30">
+      <c r="E24" s="29">
         <v>225</v>
       </c>
-      <c r="F24" s="29" t="s">
+      <c r="F24" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="30">
+      <c r="G24" s="29">
         <v>64</v>
       </c>
-      <c r="H24" s="29" t="s">
+      <c r="H24" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="30">
+      <c r="I24" s="29">
         <v>70</v>
       </c>
-      <c r="J24" s="28" t="s">
+      <c r="J24" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="44">
+      <c r="K24" s="43">
         <v>60</v>
       </c>
       <c r="L24" s="14"/>
@@ -2541,30 +2538,30 @@
       <c r="AA24" s="14"/>
     </row>
     <row r="25" ht="23.25" customHeight="1" spans="1:27">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="31">
+      <c r="B25" s="30">
         <f>IF(ISBLANK(_yuanliaozhibiao!B2),0,_yuanliaozhibiao!B2)</f>
         <v>0</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="31">
+      <c r="C25" s="31"/>
+      <c r="D25" s="30">
         <f>IF(ISBLANK(_yuanliaozhibiao!C2),0,_yuanliaozhibiao!C2)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="31">
+      <c r="E25" s="31"/>
+      <c r="F25" s="30">
         <f>IF(ISBLANK(_yuanliaozhibiao!D2),0,_yuanliaozhibiao!D2)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="32"/>
-      <c r="H25" s="31">
+      <c r="G25" s="31"/>
+      <c r="H25" s="30">
         <f>IF(ISBLANK(_yuanliaozhibiao!E2),0,_yuanliaozhibiao!E2)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="32"/>
-      <c r="J25" s="45" t="e">
+      <c r="I25" s="31"/>
+      <c r="J25" s="44" t="e">
         <f t="shared" ref="J25:J29" si="1">P6/E15*1000</f>
         <v>#DIV/0!</v>
       </c>
@@ -2590,26 +2587,26 @@
       <c r="A26" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="31">
+      <c r="B26" s="30">
         <f>IF(ISBLANK(_yuanliaozhibiao!B3),0,_yuanliaozhibiao!B3)</f>
         <v>0</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="31">
+      <c r="C26" s="31"/>
+      <c r="D26" s="30">
         <f>IF(ISBLANK(_yuanliaozhibiao!C3),0,_yuanliaozhibiao!C3)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="32"/>
-      <c r="F26" s="31">
+      <c r="E26" s="31"/>
+      <c r="F26" s="30">
         <f>IF(ISBLANK(_yuanliaozhibiao!D3),0,_yuanliaozhibiao!D3)</f>
         <v>0</v>
       </c>
-      <c r="G26" s="32"/>
-      <c r="H26" s="31">
+      <c r="G26" s="31"/>
+      <c r="H26" s="30">
         <f>IF(ISBLANK(_yuanliaozhibiao!E3),0,_yuanliaozhibiao!E3)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="32"/>
+      <c r="I26" s="31"/>
       <c r="J26" s="17" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -2636,26 +2633,26 @@
       <c r="A27" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="31">
+      <c r="B27" s="30">
         <f>IF(ISBLANK(_yuanliaozhibiao!B4),0,_yuanliaozhibiao!B4)</f>
         <v>0</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="31">
+      <c r="C27" s="31"/>
+      <c r="D27" s="30">
         <f>IF(ISBLANK(_yuanliaozhibiao!C4),0,_yuanliaozhibiao!C4)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="32"/>
-      <c r="F27" s="31">
+      <c r="E27" s="31"/>
+      <c r="F27" s="30">
         <f>IF(ISBLANK(_yuanliaozhibiao!D4),0,_yuanliaozhibiao!D4)</f>
         <v>0</v>
       </c>
-      <c r="G27" s="32"/>
-      <c r="H27" s="31">
+      <c r="G27" s="31"/>
+      <c r="H27" s="30">
         <f>IF(ISBLANK(_yuanliaozhibiao!E4),0,_yuanliaozhibiao!E4)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="32"/>
+      <c r="I27" s="31"/>
       <c r="J27" s="17" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -2682,26 +2679,26 @@
       <c r="A28" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="31">
+      <c r="B28" s="30">
         <f>IF(ISBLANK(_yuanliaozhibiao!B5),0,_yuanliaozhibiao!B5)</f>
         <v>0</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="31">
+      <c r="C28" s="31"/>
+      <c r="D28" s="30">
         <f>IF(ISBLANK(_yuanliaozhibiao!C5),0,_yuanliaozhibiao!C5)</f>
         <v>0</v>
       </c>
-      <c r="E28" s="32"/>
-      <c r="F28" s="31">
+      <c r="E28" s="31"/>
+      <c r="F28" s="30">
         <f>IF(ISBLANK(_yuanliaozhibiao!D5),0,_yuanliaozhibiao!D5)</f>
         <v>0</v>
       </c>
-      <c r="G28" s="32"/>
-      <c r="H28" s="31">
+      <c r="G28" s="31"/>
+      <c r="H28" s="30">
         <f>IF(ISBLANK(_yuanliaozhibiao!E5),0,_yuanliaozhibiao!E5)</f>
         <v>0</v>
       </c>
-      <c r="I28" s="32"/>
+      <c r="I28" s="31"/>
       <c r="J28" s="17" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -2728,26 +2725,26 @@
       <c r="A29" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="31">
+      <c r="B29" s="30">
         <f>SUM(B25:C28)</f>
         <v>0</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="31">
+      <c r="C29" s="31"/>
+      <c r="D29" s="30">
         <f>SUM(D25:E28)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="32"/>
-      <c r="F29" s="31">
+      <c r="E29" s="31"/>
+      <c r="F29" s="30">
         <f>SUM(F25:G28)</f>
         <v>0</v>
       </c>
-      <c r="G29" s="32"/>
-      <c r="H29" s="31">
+      <c r="G29" s="31"/>
+      <c r="H29" s="30">
         <f>SUM(H25:I28)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="32"/>
+      <c r="I29" s="31"/>
       <c r="J29" s="17" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
